--- a/mediafiles/reports/rapport.xlsx
+++ b/mediafiles/reports/rapport.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02 January 2025</t>
+          <t>23 dÃ©cembre 2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,27 +501,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yoff</t>
+          <t>123 Main St</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>03h27</t>
+          <t>14h57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cagil</t>
+          <t>Alphonse</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>En attente</t>
+          <t>Livré</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lahat Samb</t>
+          <t>Client 35</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -534,27 +534,23 @@
           <t>Chez Izoua</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Vosgienne - Selucy Taille Petite, Margherita Taille Petite</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>Commandée sur place</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="M2" t="n">
-        <v>6150</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02 January 2025</t>
+          <t>03 dÃ©cembre 2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -564,27 +560,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ouest Foire Dakar</t>
+          <t>789 Pine Rd</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>03h57</t>
+          <t>22h53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bazoungoula</t>
+          <t>Alphonse</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>En attente</t>
+          <t>Livré</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>George N'gock</t>
+          <t>Client 35</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -597,149 +593,141 @@
           <t>Chez Izoua</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Selucy Taille Grande</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>Commandée sur place</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="M3" t="n">
-        <v>6200</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04 January 2025</t>
+          <t>31 dÃ©cembre 2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Commandée sur place</t>
+          <t>202 Oak Ln</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Heure sur place: 02:56</t>
+          <t>04h01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Commandée sur place</t>
+          <t>Alphonse</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sur place</t>
+          <t>Livré</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lahat Samb</t>
+          <t>Client 12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Chez le livreur</t>
+          <t>Chez Izoua</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Chez le livreur</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Margherita Taille Petite</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
       </c>
       <c r="L4" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="M4" t="n">
-        <v>2500</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04 January 2025</t>
+          <t>05 dÃ©cembre 2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oui</t>
+          <t>Non</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Commandée sur place</t>
+          <t>101 Maple Ave</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Heure sur place: 03:06</t>
+          <t>09h42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Commandée sur place</t>
+          <t>Havila</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sur place</t>
+          <t>Livré</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Aboubacar</t>
+          <t>Client 29</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Chez le livreur</t>
+          <t>Chez Izoua</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Chez le livreur</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Vosgienne - Selucy Taille Petite</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
       </c>
       <c r="L5" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="M5" t="n">
-        <v>2500</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>04 January 2025</t>
+          <t>29 dÃ©cembre 2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -749,17 +737,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Keur Gorgui</t>
+          <t>202 Oak Ln</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>07h13</t>
+          <t>12h20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bazoungoula</t>
+          <t>Havila</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -769,7 +757,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Francis Wodié</t>
+          <t>Client 24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -782,27 +770,23 @@
           <t>Chez Izoua</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Selucy Taille Grande, Margherita - Selucy Taille Petite</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>Commandée sur place</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="M6" t="n">
-        <v>9300</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>04 January 2025</t>
+          <t>20 dÃ©cembre 2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -812,17 +796,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ouakam</t>
+          <t>123 Main St</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06h16</t>
+          <t>01h47</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bazoungoula</t>
+          <t>Alphonse</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -832,7 +816,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Guy Armand</t>
+          <t>Client 13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -845,27 +829,23 @@
           <t>Chez Izoua</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Selucy Taille Petite, Margherita Taille Petite</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>Commandée sur place</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="M7" t="n">
-        <v>6100</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04 January 2025</t>
+          <t>09 dÃ©cembre 2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -875,17 +855,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Liberté 6</t>
+          <t>202 Oak Ln</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>03h52</t>
+          <t>11h55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cagil</t>
+          <t>Havila</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -895,7 +875,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Koffi Alain</t>
+          <t>Client 9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -908,27 +888,23 @@
           <t>Chez Izoua</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Vosgienne - Selucy Taille Grande</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>Commandée sur place</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="M8" t="n">
-        <v>5950</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05 January 2025</t>
+          <t>15 dÃ©cembre 2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -938,17 +914,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Keur Gorgui</t>
+          <t>101 Maple Ave</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16h50</t>
+          <t>23h38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cagil</t>
+          <t>Alphonse</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -958,7 +934,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Toure Minan</t>
+          <t>Almamy</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -971,27 +947,23 @@
           <t>Chez Izoua</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Vosgienne Taille Petite, Vosgienne - Margherita Taille Grande</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>Commandée sur place</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="M9" t="n">
-        <v>8700</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>05 January 2025</t>
+          <t>31 dÃ©cembre 2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1001,17 +973,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Liberté 4</t>
+          <t>456 Elm St</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>18h56</t>
+          <t>01h34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cagil</t>
+          <t>Havila</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1021,7 +993,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Layigo</t>
+          <t>Client 51</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1034,27 +1006,23 @@
           <t>Chez Izoua</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Vosgienne Taille Grande</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>Commandée sur place</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="M10" t="n">
-        <v>6300</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>05 January 2025</t>
+          <t>16 dÃ©cembre 2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1064,17 +1032,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ouakam</t>
+          <t>456 Elm St</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16h15</t>
+          <t>09h33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cagil</t>
+          <t>Havila</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1084,7 +1052,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ouattara Nasser</t>
+          <t>Client 6</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1097,21 +1065,4788 @@
           <t>Chez Izoua</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Margherita - Selucy Taille Petite</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>Commandée sur place</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="M11" t="n">
-        <v>3500</v>
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>789 Pine Rd</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>05h08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Havila</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Client 15</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>500</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>15 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Almamy</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>500</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Client 14</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>500</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Client 60</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>500</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>03 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Client 27</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>500</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>17 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Client 13</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>500</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>03 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Client 49</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>500</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>05 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Client 42</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>500</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>04 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Client 21</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>500</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>03 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Almamy</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>500</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>16 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Client 24</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>500</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>18 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Client 29</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>500</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Client 11</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>500</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>28 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Client 6</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>500</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>19 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Client 53</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>500</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>15 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Almamy</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>500</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Client 14</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>500</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>14 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Client 60</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>500</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>03 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Client 27</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>500</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>17 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Client 13</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>500</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>03 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Client 49</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>500</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>05 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Client 42</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>500</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>04 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Client 21</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>500</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>03 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Almamy</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>500</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>16 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Client 24</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>500</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>18 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Client 29</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>500</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>05 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Client 11</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>500</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>28 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Client 6</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>500</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>19 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Client 53</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>500</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>14 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>202 Oak Ln</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14h37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Havila</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Client 40</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Selucy - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Isabelle - Antoinnette Taille Grande, Vosgienne - Selucy Taille Grande, Selucy Taille Petite, Isabelle Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>70500</v>
+      </c>
+      <c r="M41" t="n">
+        <v>73694</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>18 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>101 Maple Ave</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19h48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Alphonse</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Client 40</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Selucy - Vosgienne Taille Grande, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle - Margherita Taille Petite, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Isabelle - Antoinnette Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Selucy - Margherita Taille Grande, Antoinnette - Isabelle Taille Petite, Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>155500</v>
+      </c>
+      <c r="M42" t="n">
+        <v>159745</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>26 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>789 Pine Rd</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>09h45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Havila</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Client 35</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Selucy - Vosgienne Taille Petite, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Margherita - Selucy Taille Grande, Isabelle - Vosgienne Taille Grande, Antoinnette - Isabelle Taille Petite, Vosgienne Taille Petite, Selucy Taille Grande, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>93000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>93898</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>12 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>202 Oak Ln</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12h53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Havila</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>yve kate</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Vosgienne Taille Grande, Vosgienne Taille Petite, Margherita Taille Grande, Antoinnette Taille Grande</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>45500</v>
+      </c>
+      <c r="M44" t="n">
+        <v>46704</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>30 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>789 Pine Rd</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>07h56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Alphonse</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Client 30</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle - Antoinnette Taille Grande, Selucy - Margherita Taille Grande, Selucy Taille Petite, Isabelle Taille Grande, Antoinnette Taille Grande, Selucy Taille Grande, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>63000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>65249</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>25 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>202 Oak Ln</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>19h52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Alphonse</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Client 7</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Petite, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Isabelle - Vosgienne Taille Grande, Vosgienne Taille Grande, Margherita Taille Petite, Selucy Taille Petite, Antoinnette Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>130500</v>
+      </c>
+      <c r="M46" t="n">
+        <v>132255</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>30 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>123 Main St</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17h38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Alphonse</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Client 33</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Selucy - Vosgienne Taille Grande, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Isabelle - Antoinnette Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Antoinnette - Isabelle Taille Petite, Vosgienne Taille Grande, Margherita Taille Petite, Selucy Taille Petite, Antoinnette Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>168000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>170691</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>11 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>789 Pine Rd</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18h48</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Havila</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Client 36</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Petite, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Isabelle - Vosgienne Taille Grande, Selucy - Margherita Taille Grande, Antoinnette - Isabelle Taille Petite, Selucy Taille Petite, Antoinnette Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>108000</v>
+      </c>
+      <c r="M48" t="n">
+        <v>112298</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>13 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>123 Main St</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>08h47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Havila</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Client 38</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Selucy - Vosgienne Taille Petite, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Vosgienne - Selucy Taille Grande, Isabelle - Vosgienne Taille Grande, Margherita Taille Petite, Vosgienne Taille Petite, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>88000</v>
+      </c>
+      <c r="M49" t="n">
+        <v>90134</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>03 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>202 Oak Ln</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10h53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Alphonse</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Client 23</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Isabelle - Antoinnette Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Antoinnette - Isabelle Taille Petite, Vosgienne Taille Grande, Margherita Taille Petite, Selucy Taille Petite, Antoinnette Taille Petite, Vosgienne Taille Petite, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>165500</v>
+      </c>
+      <c r="M50" t="n">
+        <v>167057</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>16 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>202 Oak Ln</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>15h14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Havila</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>yve kate</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Vosgienne Taille Grande, Margherita Taille Petite, Isabelle Taille Grande, Margherita Taille Grande, Selucy Taille Grande, Selucy - Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>85500</v>
+      </c>
+      <c r="M51" t="n">
+        <v>86863</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>202 Oak Ln</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>16h02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Alphonse</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Livré</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Client 28</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Chez Izoua</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Isabelle - Antoinnette Taille Grande, Vosgienne - Selucy Taille Grande, Isabelle - Vosgienne Taille Grande, Selucy - Margherita Taille Grande, Antoinnette - Isabelle Taille Petite, Vosgienne Taille Grande, Margherita Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Antoinnette Taille Grande, Selucy Taille Grande, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>155500</v>
+      </c>
+      <c r="M52" t="n">
+        <v>160239</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>21 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Client 12</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>500</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>27 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Client 21</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>500</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>15 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Client 26</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>500</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>09 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Client 45</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>500</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>11 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Client 54</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>500</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>28 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Client 6</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>500</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>12 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Almamy</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>500</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>22 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Client 50</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>500</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>05 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Client 15</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>500</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>08 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Almamy</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>500</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>30 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Client 8</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>500</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>26 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Client 41</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>500</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>02 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Client 37</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>500</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>08 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Client 45</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>500</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>01 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Client 42</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>500</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>24 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Client 31</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>500</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>19 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Client 58</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>500</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>14 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Client 15</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>500</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>30 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Client 19</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>500</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>02 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:43</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Client 41</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>500</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>15 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Client 42</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Isabelle - Antoinnette Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Selucy - Margherita Taille Grande, Antoinnette - Isabelle Taille Petite, Vosgienne Taille Grande, Margherita Taille Petite, Selucy Taille Petite, Isabelle Taille Grande, Antoinnette Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>193000</v>
+      </c>
+      <c r="M73" t="n">
+        <v>192500</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>14 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Client 27</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Isabelle Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Antoinnette Taille Petite, Antoinnette Taille Grande</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>38000</v>
+      </c>
+      <c r="M74" t="n">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>01 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Client 50</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Petite, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Selucy - Margherita Taille Grande, Margherita Taille Petite, Isabelle Taille Grande, Antoinnette Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>155500</v>
+      </c>
+      <c r="M75" t="n">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>02 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Client 49</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Selucy - Vosgienne Taille Grande, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Isabelle - Antoinnette Taille Grande, Margherita - Antoinnette Taille Petite, Selucy - Margherita Taille Grande, Antoinnette - Isabelle Taille Petite, Vosgienne Taille Grande, Selucy Taille Petite, Vosgienne Taille Petite, Selucy Taille Grande, Selucy Taille Grande</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>118000</v>
+      </c>
+      <c r="M76" t="n">
+        <v>117500</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>15 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Client 43</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Selucy - Isabelle Taille Petite, Isabelle - Margherita Taille Petite, Isabelle - Margherita Taille Petite, Vosgienne Taille Grande, Selucy Taille Grande, Antoinnette Taille Grande, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>25500</v>
+      </c>
+      <c r="M77" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>08 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Client 34</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Selucy - Vosgienne Taille Grande, Selucy Taille Grande, Isabelle Taille Grande, Isabelle Taille Grande, Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Margherita Taille Grande, Antoinnette - Isabelle Taille Petite, Margherita Taille Petite</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>40500</v>
+      </c>
+      <c r="M78" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>01 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>cagil</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Selucy - Isabelle Taille Petite, Antoinnette - Vosgienne Taille Grande, Antoinnette - Vosgienne Taille Petite, Selucy - Margherita Taille Grande, Antoinnette - Isabelle Taille Petite, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>30500</v>
+      </c>
+      <c r="M79" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>12 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Client 4</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Selucy - Vosgienne Taille Grande, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Isabelle - Antoinnette Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Vosgienne Taille Grande, Margherita Taille Petite, Selucy Taille Petite, Isabelle Taille Grande, Antoinnette Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>165500</v>
+      </c>
+      <c r="M80" t="n">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>17 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Client 34</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Antoinnette - Vosgienne Taille Petite, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Vosgienne Taille Grande, Selucy Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>120500</v>
+      </c>
+      <c r="M81" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>06 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Almamy</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Isabelle - Antoinnette Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Selucy - Margherita Taille Grande, Antoinnette - Isabelle Taille Petite, Margherita Taille Petite, Selucy Taille Petite, Isabelle Taille Grande, Antoinnette Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>180500</v>
+      </c>
+      <c r="M82" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>16 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Client 51</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Isabelle - Antoinnette Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Selucy - Margherita Taille Grande, Antoinnette - Isabelle Taille Petite, Vosgienne Taille Grande, Margherita Taille Petite, Selucy Taille Petite, Isabelle Taille Grande, Antoinnette Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>198000</v>
+      </c>
+      <c r="M83" t="n">
+        <v>197500</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>23 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Client 51</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Antoinnette - Isabelle Taille Petite, Vosgienne Taille Grande, Margherita Taille Petite, Selucy Taille Petite, Isabelle Taille Grande, Antoinnette Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>165500</v>
+      </c>
+      <c r="M84" t="n">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>30 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Client 42</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Margherita - Selucy Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Selucy - Margherita Taille Grande, Antoinnette - Isabelle Taille Petite, Selucy Taille Petite, Isabelle Taille Grande, Antoinnette Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>145500</v>
+      </c>
+      <c r="M85" t="n">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>04 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Client 23</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Selucy - Vosgienne Taille Grande, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Isabelle - Vosgienne Taille Petite, Antoinnette - Vosgienne Taille Grande, Isabelle - Margherita Taille Petite, Isabelle - Margherita Taille Petite, Selucy - Isabelle Taille Grande, Margherita - Selucy Taille Grande, Vosgienne - Selucy Taille Grande, Isabelle - Vosgienne Taille Grande, Selucy - Margherita Taille Grande, Vosgienne Taille Grande, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Selucy Taille Grande, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>105500</v>
+      </c>
+      <c r="M86" t="n">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>22 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Client 38</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Isabelle - Antoinnette Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Selucy - Margherita Taille Grande, Vosgienne Taille Grande, Margherita Taille Petite, Selucy Taille Petite, Isabelle Taille Grande, Antoinnette Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>188000</v>
+      </c>
+      <c r="M87" t="n">
+        <v>187500</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>21 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>yve kate</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Isabelle Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Margherita Taille Petite, Selucy Taille Petite, Isabelle Taille Grande, Antoinnette Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Selucy Taille Grande, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>115500</v>
+      </c>
+      <c r="M88" t="n">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>09 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Client 38</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Selucy - Vosgienne Taille Petite, Selucy Taille Petite, Selucy Taille Petite, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Selucy - Isabelle Taille Grande, Margherita - Selucy Taille Grande, Vosgienne - Selucy Taille Grande, Isabelle Taille Grande, Margherita Taille Grande, Antoinnette Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>68000</v>
+      </c>
+      <c r="M89" t="n">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>30 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Client 54</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Isabelle - Vosgienne Taille Petite, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Isabelle - Antoinnette Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Selucy - Margherita Taille Grande, Antoinnette - Isabelle Taille Petite, Vosgienne Taille Grande, Margherita Taille Petite, Isabelle Taille Grande, Antoinnette Taille Petite, Vosgienne Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>175500</v>
+      </c>
+      <c r="M90" t="n">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>19 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Client 56</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Grande, Selucy - Vosgienne Taille Petite, Selucy - Isabelle Taille Grande, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy Taille Grande, Isabelle Taille Grande, Isabelle - Vosgienne Taille Grande, Vosgienne Taille Grande, Selucy Taille Grande</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>50500</v>
+      </c>
+      <c r="M91" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>15 dÃ©cembre 2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Oui</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Heure sur place: 02:45</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Commandée sur place</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sur place</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Client 8</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Chez le livreur</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Selucy Taille Petite, Selucy - Vosgienne Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy Taille Petite, Selucy Taille Grande, Selucy - Margherita Taille Grande, Selucy - Vosgienne Taille Grande, Selucy - Isabelle Taille Petite, Selucy Taille Grande, Selucy - Isabelle Taille Grande, Selucy Taille Grande, Antoinnette - Vosgienne Taille Grande, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Isabelle Taille Grande, Isabelle - Margherita Taille Petite, Vosgienne - Margherita Taille Grande, Selucy - Isabelle Taille Grande, Antoinnette - Vosgienne Taille Petite, Margherita - Selucy Taille Grande, Isabelle - Antoinnette Taille Grande, Vosgienne - Selucy Taille Grande, Margherita - Antoinnette Taille Petite, Isabelle - Vosgienne Taille Grande, Selucy - Margherita Taille Grande, Vosgienne Taille Grande, Margherita Taille Petite, Selucy Taille Petite, Isabelle Taille Grande, Antoinnette Taille Petite, Margherita Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Antoinnette Taille Grande, Selucy Taille Grande, Isabelle Taille Petite, Selucy - Isabelle Taille Petite, Isabelle Taille Petite</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>170500</v>
+      </c>
+      <c r="M92" t="n">
+        <v>170000</v>
       </c>
     </row>
   </sheetData>
